--- a/src/files/TraitImport_v03/test_traits_maxMin.xlsx
+++ b/src/files/TraitImport_v03/test_traits_maxMin.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw279\Documents\Traits\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw279\taf\src\files\TraitImport_v03\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7053"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Trait status</t>
   </si>
   <si>
-    <t>Trait lists</t>
-  </si>
-  <si>
     <t>Method description</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Numerical</t>
+  </si>
+  <si>
+    <t>Tags</t>
   </si>
 </sst>
 </file>
@@ -518,33 +518,33 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.05859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1171875" customWidth="1"/>
-    <col min="5" max="5" width="11.52734375" customWidth="1"/>
-    <col min="6" max="6" width="10.29296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5859375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.46875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.05859375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.76171875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.9375" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.52734375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3515625" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.52734375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.64453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.8203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.3515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.05078125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1015625" customWidth="1"/>
+    <col min="5" max="5" width="11.5234375" customWidth="1"/>
+    <col min="6" max="6" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.47265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.05078125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.734375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.9453125" style="6" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5234375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3671875" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5234375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.62890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -562,66 +562,66 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -633,33 +633,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -671,33 +671,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -709,33 +709,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N5">
         <v>4</v>
@@ -747,33 +747,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="L6" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -799,9 +799,9 @@
       <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>1.1000000000000001</v>
       </c>
@@ -809,13 +809,13 @@
         <v>5.5555500000000002</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2.2200000000000002</v>
       </c>
@@ -823,13 +823,13 @@
         <v>4.4443999999999999</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>3.3330000000000002</v>
       </c>
@@ -837,13 +837,13 @@
         <v>3.3330000000000002</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3">
         <v>3.33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>4.4443999999999999</v>
       </c>
@@ -851,13 +851,13 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>5.5555500000000002</v>
       </c>
@@ -865,39 +865,39 @@
         <v>5.5555399999999997</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>5.5555399999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -909,33 +909,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -947,33 +947,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>4</v>
@@ -985,33 +985,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,18 +1029,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1222,14 +1222,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -1241,6 +1233,14 @@
     <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/files/TraitImport_v03/test_traits_maxMin.xlsx
+++ b/src/files/TraitImport_v03/test_traits_maxMin.xlsx
@@ -518,7 +518,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -627,10 +627,10 @@
         <v>1</v>
       </c>
       <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
         <v>1</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -703,10 +703,10 @@
         <v>2</v>
       </c>
       <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
         <v>3</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -779,10 +779,10 @@
         <v>1</v>
       </c>
       <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
         <v>5</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1035,15 +1035,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D74C1D9EC8A1042A5EF45985DF3E9E4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2000d971e1751a7db8d92151125d08a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa5be1c8-7296-4b7a-853c-c6802fcefdea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4a1f299a0d30015388c519f6ad441cc" ns3:_="">
     <xsd:import namespace="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
@@ -1221,6 +1212,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
   <ds:schemaRefs>
@@ -1238,14 +1238,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340A8394-9E0A-435F-BF61-25A36768AA02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1261,4 +1253,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/files/TraitImport_v03/test_traits_maxMin.xlsx
+++ b/src/files/TraitImport_v03/test_traits_maxMin.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw279\Documents\Traits\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daw279\Documents\Testing\Cucumber\BI_Cucumber\TraitImportFiles\v0.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7053"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7056"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>Trait abbreviations</t>
   </si>
@@ -33,15 +33,9 @@
     <t>Trait synonyms</t>
   </si>
   <si>
-    <t>Trait level</t>
-  </si>
-  <si>
     <t>Trait status</t>
   </si>
   <si>
-    <t>Trait lists</t>
-  </si>
-  <si>
     <t>Method description</t>
   </si>
   <si>
@@ -72,15 +66,9 @@
     <t>Estimation</t>
   </si>
   <si>
-    <t>Trait name</t>
-  </si>
-  <si>
     <t>Trait description</t>
   </si>
   <si>
-    <t>Method name</t>
-  </si>
-  <si>
     <t>Computation</t>
   </si>
   <si>
@@ -172,22 +160,29 @@
   </si>
   <si>
     <t>Numerical</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Ontology term name</t>
+  </si>
+  <si>
+    <t>Trait entity</t>
+  </si>
+  <si>
+    <t>Trait attribute</t>
+  </si>
+  <si>
+    <t>attr1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,12 +202,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="34"/>
+        <bgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="34"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,14 +234,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,34 +523,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.05859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5859375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1171875" customWidth="1"/>
-    <col min="5" max="5" width="11.52734375" customWidth="1"/>
-    <col min="6" max="6" width="10.29296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5859375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.46875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.05859375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.76171875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.9375" style="6" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10.52734375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3515625" style="5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.52734375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.64453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.8203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.3515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.05078125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1015625" customWidth="1"/>
+    <col min="5" max="5" width="11.5234375" customWidth="1"/>
+    <col min="6" max="6" width="10.3125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.05078125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.9453125" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5234375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="10.3671875" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5234375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.62890625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43.3671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -552,237 +557,237 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
       </c>
       <c r="O2">
         <v>1</v>
       </c>
-      <c r="P2">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="N4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4">
         <v>3</v>
       </c>
-      <c r="P4">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>47</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O6">
         <v>5</v>
-      </c>
-      <c r="P6">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -799,105 +804,105 @@
       <selection activeCell="A10" sqref="A10:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B1">
         <v>5.5555500000000002</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="F1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>2.2200000000000002</v>
       </c>
       <c r="B2">
         <v>4.4443999999999999</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>34</v>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>3.3330000000000002</v>
       </c>
       <c r="B3">
         <v>3.3330000000000002</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>35</v>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="F3">
         <v>3.33</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>4.4443999999999999</v>
       </c>
       <c r="B4">
         <v>2.2200000000000002</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>5.5555500000000002</v>
       </c>
       <c r="B5">
         <v>5.5555399999999997</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>14</v>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F5">
         <v>5.5555399999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -909,33 +914,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>42</v>
+      <c r="J9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -947,33 +952,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
         <v>42</v>
       </c>
-      <c r="L10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>48</v>
+      <c r="M10" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="N10">
         <v>4</v>
@@ -985,33 +990,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="L11" t="s">
-        <v>47</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1029,21 +1034,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D74C1D9EC8A1042A5EF45985DF3E9E4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2000d971e1751a7db8d92151125d08a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="aa5be1c8-7296-4b7a-853c-c6802fcefdea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a4a1f299a0d30015388c519f6ad441cc" ns3:_="">
     <xsd:import namespace="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
@@ -1221,31 +1211,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{340A8394-9E0A-435F-BF61-25A36768AA02}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1261,4 +1242,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EFE1791-BEC8-419B-A7D8-F7EAC9E3F094}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="aa5be1c8-7296-4b7a-853c-c6802fcefdea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7613A94-47D1-485D-A76D-D3A6CFAB63B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>